--- a/InputFiles/CCDI/TC04_CCDI_phs002431_SampleAnatomicsite-Buccalmucosa.xlsx
+++ b/InputFiles/CCDI/TC04_CCDI_phs002431_SampleAnatomicsite-Buccalmucosa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A0B47-286E-BE48-A838-E1DE432D54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809643C9-0D61-EF46-8B87-5E4155478C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="-25420" windowWidth="32640" windowHeight="22500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="11980" yWindow="-24680" windowWidth="32640" windowHeight="22500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,67 +125,6 @@
 LEFT JOIN df_generic_file g ON std.id = g."study.id" 
 WHERE std.dbgap_accession = 'phs002431'
   AND smp.anatomic_site = 'C06.0 : Buccal mucosa'</t>
-  </si>
-  <si>
-    <t>WITH diagnosis_summary AS (
-    SELECT 
-        dgn."participant.id" AS participant_id, 
-        GROUP_CONCAT(DISTINCT dgn.age_at_diagnosis) AS age_at_diagnosis, 
-        GROUP_CONCAT(DISTINCT dgn.diagnosis) AS diagnosis, 
-        GROUP_CONCAT(DISTINCT dgn.anatomic_site) AS anatomic_site
-    FROM df_diagnosis dgn
-    WHERE dgn."participant.id" IS NOT NULL
-    GROUP BY dgn."participant.id"
-),
-treatment_summary AS (
-    SELECT
-        t."participant.id" AS participant_id,
-        GROUP_CONCAT(t.treatment_type, ';') AS treatment_type
-    FROM (
-        SELECT DISTINCT "participant.id", treatment_type
-        FROM df_treatment
-        WHERE treatment_type IS NOT NULL
-        ORDER BY "participant.id", treatment_type
-    ) t
-    GROUP BY t."participant.id"
-),
-survival_summary AS (
-    SELECT 
-        s."participant.id" AS participant_id,
-        GROUP_CONCAT(s.last_known_survival_status, ';') AS last_known_survival_status
-    FROM (
-        SELECT DISTINCT "participant.id", last_known_survival_status
-        FROM df_survival
-        WHERE last_known_survival_status IS NOT NULL
-        ORDER BY "participant.id", last_known_survival_status
-    ) s
-    GROUP BY s."participant.id"
-)
-SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
-    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
-            ELSE dgn.age_at_diagnosis 
-        END, ''
-    ) AS "Age at Diagnosis (days)",
-    COALESCE(trt.treatment_type, '') AS "Treatment Type",
-    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
-FROM df_study std
-JOIN df_participant prt ON std.id = prt."study.id"
-LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
-LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
-LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
-LEFT JOIN df_sample smp ON prt.id = smp."participant.id"
-WHERE std.dbgap_accession = 'phs002431'
-  AND smp.anatomic_site = 'C06.0 : Buccal mucosa'
-ORDER BY prt.participant_id ASC
-LIMIT 100;</t>
   </si>
   <si>
     <t>WITH all_files AS (
@@ -288,14 +227,82 @@
     CAST(smp.sample_id AS TEXT) ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>WITH diagnosis_summary AS (
+    SELECT 
+        dgn."participant.id" AS participant_id, 
+        GROUP_CONCAT(dgn.age_at_diagnosis, ';') AS age_at_diagnosis, 
+        GROUP_CONCAT(dgn.diagnosis, ';') AS diagnosis, 
+        GROUP_CONCAT(dgn.anatomic_site, ';') AS anatomic_site
+    FROM df_diagnosis dgn
+    WHERE dgn."participant.id" IS NOT NULL
+    GROUP BY dgn."participant.id"
+),
+treatment_summary AS (
+    SELECT
+        t."participant.id" AS participant_id,
+        GROUP_CONCAT(t.treatment_type, ';') AS treatment_type
+    FROM (
+        SELECT DISTINCT "participant.id", treatment_type
+        FROM df_treatment
+        WHERE treatment_type IS NOT NULL
+        ORDER BY "participant.id", treatment_type
+    ) t
+    GROUP BY t."participant.id"
+),
+survival_summary AS (
+    SELECT 
+        s."participant.id" AS participant_id,
+        GROUP_CONCAT(s.last_known_survival_status, ';') AS last_known_survival_status
+    FROM (
+        SELECT DISTINCT "participant.id", last_known_survival_status
+        FROM df_survival
+        WHERE last_known_survival_status IS NOT NULL
+        ORDER BY "participant.id", last_known_survival_status
+    ) s
+    GROUP BY s."participant.id"
+)
+SELECT DISTINCT
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
+    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
+            ELSE dgn.age_at_diagnosis 
+        END, ''
+    ) AS "Age at Diagnosis (days)",
+    COALESCE(trt.treatment_type, '') AS "Treatment Type",
+    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_study std
+JOIN df_participant prt ON std.id = prt."study.id"
+LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
+LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
+LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
+LEFT JOIN df_sample smp ON prt.id = smp."participant.id"
+WHERE std.dbgap_accession = 'phs002431'
+  AND smp.anatomic_site = 'C06.0 : Buccal mucosa'
+ORDER BY prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,11 +369,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,8 +741,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -758,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -767,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -779,7 +789,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
